--- a/regions/9/ckhovrebis done/shemosavlebi.xlsx
+++ b/regions/9/ckhovrebis done/shemosavlebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -276,73 +276,73 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -355,10 +355,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -670,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -684,7 +684,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>15</v>
       </c>
@@ -699,8 +699,10 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="13">
         <v>2011</v>
@@ -735,8 +737,14 @@
       <c r="L2" s="14">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="14">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
@@ -770,11 +778,17 @@
       <c r="K3" s="9">
         <v>89.503523898669044</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="9">
         <v>110.14156066611129</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="18">
+        <v>146.35887658220102</v>
+      </c>
+      <c r="N3" s="18">
+        <v>155.40896158925597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -808,11 +822,17 @@
       <c r="K4" s="9">
         <v>80.37458482261377</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="9">
         <v>99.910971875174397</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="18">
+        <v>134.92879298060623</v>
+      </c>
+      <c r="N4" s="18">
+        <v>143.13395563964195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
@@ -846,11 +866,17 @@
       <c r="K5" s="10">
         <v>26.282695066501621</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="10">
         <v>29.847791295908614</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="19">
+        <v>44.608538402922299</v>
+      </c>
+      <c r="N5" s="19">
+        <v>52.721964486073809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
@@ -884,11 +910,17 @@
       <c r="K6" s="10">
         <v>7.2346929112497982</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="10">
         <v>10.828225828463237</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="19">
+        <v>16.450095762736002</v>
+      </c>
+      <c r="N6" s="19">
+        <v>20.629484400110879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>2</v>
       </c>
@@ -922,11 +954,17 @@
       <c r="K7" s="10">
         <v>13.141123824667105</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="10">
         <v>23.782519200420001</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="19">
+        <v>34.194678821009255</v>
+      </c>
+      <c r="N7" s="19">
+        <v>25.559030360046069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>3</v>
       </c>
@@ -960,11 +998,17 @@
       <c r="K8" s="10">
         <v>0.14857929884592691</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="10">
         <v>0.13133184204101561</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="19">
+        <v>0.15233321603139244</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0.84774645850499475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
@@ -998,11 +1042,17 @@
       <c r="K9" s="10">
         <v>23.125511383754727</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="10">
         <v>25.479523319424946</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="19">
+        <v>26.677880382896429</v>
+      </c>
+      <c r="N9" s="19">
+        <v>32.30772132241821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
@@ -1036,11 +1086,17 @@
       <c r="K10" s="10">
         <v>3.4114289217122393</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="10">
         <v>2.6734463456980384</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="19">
+        <v>4.1665209656588242</v>
+      </c>
+      <c r="N10" s="19">
+        <v>2.8944566860262557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="16" t="s">
         <v>6</v>
       </c>
@@ -1074,11 +1130,17 @@
       <c r="K11" s="10">
         <v>7.0305534158823608</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="10">
         <v>7.1681340432185374</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="19">
+        <v>8.6787454293520199</v>
+      </c>
+      <c r="N11" s="19">
+        <v>8.1735519264617267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
@@ -1112,11 +1174,17 @@
       <c r="K12" s="9">
         <v>9.128939076055282</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="9">
         <v>10.230588790936917</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="18">
+        <v>11.430083601594788</v>
+      </c>
+      <c r="N12" s="18">
+        <v>12.275005949614025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
@@ -1150,11 +1218,17 @@
       <c r="K13" s="9">
         <v>13.016450832675936</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="9">
         <v>15.653128857307431</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="18">
+        <v>19.433295661214192</v>
+      </c>
+      <c r="N13" s="18">
+        <v>18.947819652873989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
@@ -1188,11 +1262,17 @@
       <c r="K14" s="10">
         <v>0.96436145846049004</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="10">
         <v>0.24294555778503418</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="19">
+        <v>0.78902140045166014</v>
+      </c>
+      <c r="N14" s="19">
+        <v>1.2152607299804687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="16" t="s">
         <v>8</v>
       </c>
@@ -1226,11 +1306,17 @@
       <c r="K15" s="10">
         <v>12.052089374215445</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="10">
         <v>15.410183299522398</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="19">
+        <v>18.644274260762533</v>
+      </c>
+      <c r="N15" s="19">
+        <v>17.732558922893524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>13</v>
       </c>
@@ -1264,11 +1350,17 @@
       <c r="K16" s="9">
         <v>93.391035655289713</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="9">
         <v>115.56410073248183</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="18">
+        <v>154.36208864182041</v>
+      </c>
+      <c r="N16" s="18">
+        <v>162.08177529251594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>14</v>
       </c>
@@ -1302,11 +1394,17 @@
       <c r="K17" s="11">
         <v>102.519974731345</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="11">
         <v>125.79468952341871</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="M17" s="20">
+        <v>165.79217224341522</v>
+      </c>
+      <c r="N17" s="20">
+        <v>174.35678124212998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1317,7 +1415,7 @@
       <c r="H18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1328,7 +1426,7 @@
       <c r="H19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
+    <row r="20" spans="1:14" ht="30" customHeight="1">
       <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
@@ -1343,8 +1441,10 @@
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="13">
         <v>2011</v>
@@ -1379,8 +1479,14 @@
       <c r="L21" s="14">
         <v>2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
+      <c r="M21" s="14">
+        <v>2022</v>
+      </c>
+      <c r="N21" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="15" t="s">
         <v>9</v>
       </c>
@@ -1414,11 +1520,17 @@
       <c r="K22" s="9">
         <v>928.77136565449985</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="9">
         <v>1105.7741267589151</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="M22" s="21">
+        <v>1552.36668332612</v>
+      </c>
+      <c r="N22" s="21">
+        <v>1682.547530351186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>10</v>
       </c>
@@ -1452,11 +1564,17 @@
       <c r="K23" s="9">
         <v>834.04104841868116</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="9">
         <v>1003.0633941516141</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="M23" s="18">
+        <v>1431.1326223309713</v>
+      </c>
+      <c r="N23" s="18">
+        <v>1549.6511984127774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="16" t="s">
         <v>0</v>
       </c>
@@ -1490,11 +1608,17 @@
       <c r="K24" s="10">
         <v>272.73355871028986</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="10">
         <v>299.65904928447924</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="19">
+        <v>473.14389414349893</v>
+      </c>
+      <c r="N24" s="19">
+        <v>570.79855778046124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="16" t="s">
         <v>1</v>
       </c>
@@ -1528,11 +1652,17 @@
       <c r="K25" s="10">
         <v>75.07386662093559</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="10">
         <v>108.71075266596741</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="19">
+        <v>174.47920615360269</v>
+      </c>
+      <c r="N25" s="19">
+        <v>223.34675989640303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="16" t="s">
         <v>2</v>
       </c>
@@ -1566,11 +1696,17 @@
       <c r="K26" s="10">
         <v>136.36445794792266</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="10">
         <v>238.76631347809698</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="19">
+        <v>362.68849138752915</v>
+      </c>
+      <c r="N26" s="19">
+        <v>276.71688280194741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="16" t="s">
         <v>3</v>
       </c>
@@ -1604,11 +1740,17 @@
       <c r="K27" s="10">
         <v>1.5417962588082146</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="10">
         <v>1.3185154819875968</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="19">
+        <v>1.615733974278212</v>
+      </c>
+      <c r="N27" s="19">
+        <v>9.1781947162830395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="16" t="s">
         <v>4</v>
       </c>
@@ -1642,11 +1784,17 @@
       <c r="K28" s="10">
         <v>239.97170003792388</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="10">
         <v>255.80350848832117</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="19">
+        <v>282.96099051367213</v>
+      </c>
+      <c r="N28" s="19">
+        <v>349.78212431519893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="16" t="s">
         <v>5</v>
       </c>
@@ -1680,11 +1828,17 @@
       <c r="K29" s="10">
         <v>35.400142479742634</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L29" s="10">
         <v>26.840257033516355</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="19">
+        <v>44.192525137591225</v>
+      </c>
+      <c r="N29" s="19">
+        <v>31.337066401958637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="16" t="s">
         <v>6</v>
       </c>
@@ -1718,11 +1872,17 @@
       <c r="K30" s="10">
         <v>72.955526363058269</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="10">
         <v>71.964997719245432</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="M30" s="19">
+        <v>92.051781020799012</v>
+      </c>
+      <c r="N30" s="19">
+        <v>88.491612500524624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="15" t="s">
         <v>11</v>
       </c>
@@ -1756,11 +1916,17 @@
       <c r="K31" s="9">
         <v>94.730317235818575</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="9">
         <v>102.71073260730135</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="18">
+        <v>121.23406099514851</v>
+      </c>
+      <c r="N31" s="18">
+        <v>132.89633193840885</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="15" t="s">
         <v>12</v>
       </c>
@@ -1794,11 +1960,17 @@
       <c r="K32" s="9">
         <v>135.07073564529057</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="9">
         <v>157.15071394080528</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="18">
+        <v>206.12074536354899</v>
+      </c>
+      <c r="N32" s="18">
+        <v>205.14008224791357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="16" t="s">
         <v>7</v>
       </c>
@@ -1832,11 +2004,17 @@
       <c r="K33" s="10">
         <v>10.007106645018176</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L33" s="10">
         <v>2.439069415623059</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="19">
+        <v>8.3688161804422485</v>
+      </c>
+      <c r="N33" s="19">
+        <v>13.157117318405515</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="16" t="s">
         <v>8</v>
       </c>
@@ -1870,11 +2048,17 @@
       <c r="K34" s="10">
         <v>125.06362900027239</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="10">
         <v>154.71164452518221</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="19">
+        <v>197.75192918310674</v>
+      </c>
+      <c r="N34" s="19">
+        <v>191.982964929508</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="15" t="s">
         <v>13</v>
       </c>
@@ -1908,11 +2092,17 @@
       <c r="K35" s="9">
         <v>969.11178406397141</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="9">
         <v>1160.2141080924196</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="18">
+        <v>1637.2533676945202</v>
+      </c>
+      <c r="N35" s="18">
+        <v>1754.7912806606907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="17" t="s">
         <v>14</v>
       </c>
@@ -1946,11 +2136,17 @@
       <c r="K36" s="11">
         <v>1063.8421012997901</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="11">
         <v>1262.9248406997206</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="M36" s="20">
+        <v>1758.4874286896688</v>
+      </c>
+      <c r="N36" s="20">
+        <v>1887.6876125991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1961,7 +2157,7 @@
       <c r="H37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1972,7 +2168,7 @@
       <c r="H38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1">
+    <row r="39" spans="1:14" ht="30" customHeight="1">
       <c r="A39" s="24" t="s">
         <v>19</v>
       </c>
@@ -1987,8 +2183,10 @@
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="13">
         <v>2011</v>
@@ -2023,8 +2221,14 @@
       <c r="L40" s="14">
         <v>2021</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="14">
+        <v>2022</v>
+      </c>
+      <c r="N40" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="15" t="s">
         <v>9</v>
       </c>
@@ -2058,11 +2262,17 @@
       <c r="K41" s="9">
         <v>288.67355415667851</v>
       </c>
-      <c r="L41" s="18">
+      <c r="L41" s="9">
         <v>355.77967733857565</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="18">
+        <v>479.99264149697541</v>
+      </c>
+      <c r="N41" s="18">
+        <v>512.80608444172617</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="15" t="s">
         <v>10</v>
       </c>
@@ -2096,11 +2306,17 @@
       <c r="K42" s="9">
         <v>259.23020741484316</v>
       </c>
-      <c r="L42" s="18">
+      <c r="L42" s="9">
         <v>322.73279152172069</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
+      <c r="M42" s="18">
+        <v>442.50700243920772</v>
+      </c>
+      <c r="N42" s="18">
+        <v>472.30199977923888</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="16" t="s">
         <v>0</v>
       </c>
@@ -2134,11 +2350,17 @@
       <c r="K43" s="10">
         <v>84.768941681591656</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L43" s="10">
         <v>96.414446030224752</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
+      <c r="M43" s="19">
+        <v>146.29635510567914</v>
+      </c>
+      <c r="N43" s="19">
+        <v>173.96772937480569</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1">
       <c r="A44" s="16" t="s">
         <v>1</v>
       </c>
@@ -2172,11 +2394,17 @@
       <c r="K44" s="10">
         <v>23.333880331762703</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L44" s="10">
         <v>34.97737518972</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
+      <c r="M44" s="19">
+        <v>53.949067541517977</v>
+      </c>
+      <c r="N44" s="19">
+        <v>68.071525677087436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="16" t="s">
         <v>2</v>
       </c>
@@ -2210,11 +2438,17 @@
       <c r="K45" s="10">
         <v>42.383749318903291</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L45" s="10">
         <v>76.822381635521154</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="M45" s="19">
+        <v>112.14348316768204</v>
+      </c>
+      <c r="N45" s="19">
+        <v>84.337647887408281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="16" t="s">
         <v>3</v>
       </c>
@@ -2248,11 +2482,17 @@
       <c r="K46" s="10">
         <v>0.47920922443813196</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L46" s="10">
         <v>0.42422860274586499</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="19">
+        <v>0.49958584308735782</v>
+      </c>
+      <c r="N46" s="19">
+        <v>2.7973260842850984</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="16" t="s">
         <v>4</v>
       </c>
@@ -2286,11 +2526,17 @@
       <c r="K47" s="10">
         <v>74.586153394329926</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L47" s="10">
         <v>82.304050628137674</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="19">
+        <v>87.491695574302199</v>
+      </c>
+      <c r="N47" s="19">
+        <v>106.60643954607787</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="16" t="s">
         <v>5</v>
       </c>
@@ -2324,11 +2570,17 @@
       <c r="K48" s="10">
         <v>11.002799316577542</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L48" s="10">
         <v>8.6357762910027258</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="19">
+        <v>13.664353340645407</v>
+      </c>
+      <c r="N48" s="19">
+        <v>9.5508970947909226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="16" t="s">
         <v>6</v>
       </c>
@@ -2362,11 +2614,17 @@
       <c r="K49" s="10">
         <v>22.675474147239896</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L49" s="10">
         <v>23.154533144368525</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="19">
+        <v>28.462461866293662</v>
+      </c>
+      <c r="N49" s="19">
+        <v>26.970434114783615</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="15" t="s">
         <v>11</v>
       </c>
@@ -2400,11 +2658,17 @@
       <c r="K50" s="9">
         <v>29.443346741835388</v>
       </c>
-      <c r="L50" s="18">
+      <c r="L50" s="9">
         <v>33.046885816854974</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="18">
+        <v>37.485639057767614</v>
+      </c>
+      <c r="N50" s="18">
+        <v>40.504084662487301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="15" t="s">
         <v>12</v>
       </c>
@@ -2438,11 +2702,17 @@
       <c r="K51" s="9">
         <v>41.981644528636203</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L51" s="9">
         <v>50.562794829776664</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="18">
+        <v>63.732649055822868</v>
+      </c>
+      <c r="N51" s="18">
+        <v>62.522502599168284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="16" t="s">
         <v>7</v>
       </c>
@@ -2476,11 +2746,17 @@
       <c r="K52" s="10">
         <v>3.1103317230356273</v>
       </c>
-      <c r="L52" s="19">
+      <c r="L52" s="10">
         <v>0.78476364087143691</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="19">
+        <v>2.5876426154974501</v>
+      </c>
+      <c r="N52" s="19">
+        <v>4.0100203369492293</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="16" t="s">
         <v>8</v>
       </c>
@@ -2514,11 +2790,17 @@
       <c r="K53" s="10">
         <v>38.871312805600567</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L53" s="10">
         <v>49.778031188905238</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="19">
+        <v>61.145006440325425</v>
+      </c>
+      <c r="N53" s="19">
+        <v>58.512482262219052</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="15" t="s">
         <v>13</v>
       </c>
@@ -2552,11 +2834,17 @@
       <c r="K54" s="9">
         <v>301.2118519434793</v>
       </c>
-      <c r="L54" s="18">
+      <c r="L54" s="9">
         <v>373.29558635149743</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="18">
+        <v>506.23965149503056</v>
+      </c>
+      <c r="N54" s="18">
+        <v>534.82450237840726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="17" t="s">
         <v>14</v>
       </c>
@@ -2590,11 +2878,17 @@
       <c r="K55" s="11">
         <v>330.65519868531476</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L55" s="11">
         <v>406.34247216835223</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="M55" s="20">
+        <v>543.72529055279824</v>
+      </c>
+      <c r="N55" s="20">
+        <v>575.3285870408946</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="25" t="s">
         <v>16</v>
       </c>
@@ -2609,8 +2903,10 @@
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
-    </row>
-    <row r="57" spans="1:12" s="12" customFormat="1" ht="30" customHeight="1">
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+    </row>
+    <row r="57" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="26" t="s">
         <v>17</v>
       </c>
@@ -2625,8 +2921,10 @@
       <c r="J57" s="26"/>
       <c r="K57" s="26"/>
       <c r="L57" s="26"/>
-    </row>
-    <row r="58" spans="1:12" ht="30" customHeight="1">
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -2638,7 +2936,7 @@
       <c r="I58" s="23"/>
       <c r="J58" s="23"/>
     </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
+    <row r="59" spans="1:14" ht="15" customHeight="1">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -2650,7 +2948,7 @@
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
     </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
+    <row r="60" spans="1:14" ht="15" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2665,11 +2963,11 @@
   <mergeCells count="7">
     <mergeCell ref="A59:J59"/>
     <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
